--- a/Exel_Petrov.xlsx
+++ b/Exel_Petrov.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comcuru\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comcuru\Desktop\Petrov_KT7\KT7_Petrov_Petr_ISP411\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="78">
   <si>
     <t>Тип продукции</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Минимальная стоимость для партнера</t>
   </si>
   <si>
-    <t>Тип материала</t>
-  </si>
-  <si>
     <t>МонтажПро</t>
   </si>
   <si>
@@ -280,7 +277,7 @@
     <t>idPartneer</t>
   </si>
   <si>
-    <t>NameParter</t>
+    <t>idPart</t>
   </si>
 </sst>
 </file>
@@ -708,14 +705,14 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="60" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.7109375" bestFit="1" customWidth="1"/>
@@ -723,10 +720,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>0</v>
@@ -860,7 +857,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,10 +871,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -885,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -893,7 +890,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -901,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -909,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -917,7 +914,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -933,7 +930,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,10 +940,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -954,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -962,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -970,7 +967,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -978,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -991,10 +988,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,79 +999,95 @@
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" style="17" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17">
-        <f>LOOKUP(A2,Products_import!$C$2:$C$6,Products_import!$B$2:$B$6)</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="C2" s="17">
+        <f>LOOKUP(B2,Products_import!$C$2:$C$6,Products_import!$B$2:$B$6)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
         <v>2.35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="5">
         <v>5.15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17">
-        <f>LOOKUP(A4,Products_import!$C$2:$C$6,Products_import!$B$2:$B$6)</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17">
+        <f>LOOKUP(B4,Products_import!$C$2:$C$6,Products_import!$B$2:$B$6)</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
         <v>4.34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="17">
-        <f>LOOKUP(A5,Products_import!$C$2:$C$6,Products_import!$B$2:$B$6)</f>
-        <v>3</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="C5" s="17">
+        <f>LOOKUP(B5,Products_import!$C$2:$C$6,Products_import!$B$2:$B$6)</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="16"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="16"/>
       <c r="C7" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C5">
-    <sortCondition ref="A2"/>
+  <sortState ref="B2:D5">
+    <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1086,7 +1099,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,10 +1109,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1139,44 +1152,44 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="9" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <f>LOOKUP(C2,Partners_import!$D$2:$D$6,Partners_import!$E$2:$E$6)</f>
-        <v>База Строитель</v>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C2">
+        <f>LOOKUP(B2,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>1</v>
       </c>
       <c r="D2" s="2">
@@ -1191,11 +1204,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <f>LOOKUP(C3,Partners_import!$D$2:$D$6,Partners_import!$E$2:$E$6)</f>
-        <v>МонтажПро</v>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C3">
+        <f>LOOKUP(B3,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>2</v>
       </c>
       <c r="D3" s="2">
@@ -1210,11 +1223,11 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <f>LOOKUP(C4,Partners_import!$D$2:$D$6,Partners_import!$E$2:$E$6)</f>
-        <v>Паркет 29</v>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C4">
+        <f>LOOKUP(B4,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>3</v>
       </c>
       <c r="D4" s="2">
@@ -1229,11 +1242,11 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <f>LOOKUP(C5,Partners_import!$D$2:$D$6,Partners_import!$E$2:$E$6)</f>
-        <v>Ремонт и отделка</v>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C5">
+        <f>LOOKUP(B5,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>4</v>
       </c>
       <c r="D5" s="2">
@@ -1248,11 +1261,11 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <f>LOOKUP(C6,Partners_import!$D$2:$D$6,Partners_import!$E$2:$E$6)</f>
-        <v>Стройсервис</v>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C6">
+        <f>LOOKUP(B6,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>5</v>
       </c>
       <c r="D6" s="2">
@@ -1273,7 +1286,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A2" sqref="A2:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,22 +1301,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1318,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="11">
         <v>15500</v>
@@ -1339,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="11">
         <v>12350</v>
@@ -1360,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="11">
         <v>37400</v>
@@ -1381,7 +1394,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="11">
         <v>35000</v>
@@ -1402,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="11">
         <v>1250</v>
@@ -1423,7 +1436,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="11">
         <v>1000</v>
@@ -1444,7 +1457,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="11">
         <v>7550</v>
@@ -1465,7 +1478,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="11">
         <v>7250</v>
@@ -1486,7 +1499,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="11">
         <v>2500</v>
@@ -1507,7 +1520,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="11">
         <v>59050</v>
@@ -1528,7 +1541,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="11">
         <v>37200</v>
@@ -1549,7 +1562,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="11">
         <v>4500</v>
@@ -1570,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="11">
         <v>50000</v>
@@ -1591,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="11">
         <v>670000</v>
@@ -1612,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="11">
         <v>35000</v>
@@ -1633,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="11">
         <v>25000</v>
@@ -1652,7 +1665,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,10 +1675,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1673,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1681,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1689,7 +1702,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1697,7 +1710,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1705,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1720,14 +1733,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="24.140625" hidden="1" customWidth="1"/>
@@ -1743,67 +1756,67 @@
     <col min="15" max="15" width="23.42578125" style="15" customWidth="1"/>
     <col min="16" max="16" width="23.42578125" style="15" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="23.42578125" style="15" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="12" customWidth="1"/>
     <col min="19" max="19" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>70</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>56</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>71</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>57</v>
       </c>
-      <c r="O1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" t="s">
-        <v>37</v>
+      <c r="R1" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -1815,20 +1828,20 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <f>LOOKUP(E2,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="15">
         <v>4931234567</v>
@@ -1845,27 +1858,27 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M2">
         <f>LOOKUP(N2,City!$B$2:$B$6,City!$A$2:$A$6)</f>
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O2">
         <f>LOOKUP(P2,Street!$B$2:$B$6,Street!$A$2:$A$6)</f>
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q2">
         <v>15</v>
       </c>
-      <c r="R2">
-        <v>2222455179</v>
+      <c r="R2" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="S2">
         <v>7</v>
@@ -1880,20 +1893,20 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <f>LOOKUP(E3,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="15">
         <v>9128883333</v>
@@ -1910,27 +1923,27 @@
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M3">
         <f>LOOKUP(N3,City!$B$2:$B$6,City!$A$2:$A$6)</f>
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O3">
         <f>LOOKUP(P3,Street!$B$2:$B$6,Street!$A$2:$A$6)</f>
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q3">
         <v>122</v>
       </c>
-      <c r="R3">
-        <v>5552431140</v>
+      <c r="R3" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="S3">
         <v>10</v>
@@ -1945,20 +1958,20 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <f>LOOKUP(E4,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="15">
         <v>9871235678</v>
@@ -1975,27 +1988,27 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M4">
         <f>LOOKUP(N4,City!$B$2:$B$6,City!$A$2:$A$6)</f>
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O4">
         <f>LOOKUP(P4,Street!$B$2:$B$6,Street!$A$2:$A$6)</f>
         <v>5</v>
       </c>
       <c r="P4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q4">
         <v>18</v>
       </c>
-      <c r="R4">
-        <v>3333888520</v>
+      <c r="R4" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="S4">
         <v>7</v>
@@ -2010,20 +2023,20 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <f>LOOKUP(E5,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="15">
         <v>4442223311</v>
@@ -2040,27 +2053,27 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M5">
         <f>LOOKUP(N5,City!$B$2:$B$6,City!$A$2:$A$6)</f>
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O5">
         <f>LOOKUP(P5,Street!$B$2:$B$6,Street!$A$2:$A$6)</f>
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q5">
         <v>51</v>
       </c>
-      <c r="R5">
-        <v>1111520857</v>
+      <c r="R5" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="S5">
         <v>5</v>
@@ -2075,20 +2088,20 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <f>LOOKUP(E6,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="15">
         <v>8122233200</v>
@@ -2105,27 +2118,27 @@
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M6">
         <f>LOOKUP(N6,City!$B$2:$B$6,City!$A$2:$A$6)</f>
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O6">
         <f>LOOKUP(P6,Street!$B$2:$B$6,Street!$A$2:$A$6)</f>
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q6">
         <v>21</v>
       </c>
-      <c r="R6">
-        <v>4440391035</v>
+      <c r="R6" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="S6">
         <v>7</v>
@@ -2152,7 +2165,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,10 +2175,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2221,7 +2234,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,10 +2244,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2242,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2250,7 +2263,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2258,7 +2271,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2266,7 +2279,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2274,7 +2287,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2290,7 +2303,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,10 +2313,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2311,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2319,7 +2332,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2327,7 +2340,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2335,7 +2348,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2343,7 +2356,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
